--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-Flag</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-Flag</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>statusPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-flagStatusPeriod}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod}
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-flagStatusPeriod</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -758,7 +758,7 @@
     <t>If non-coded, use CodeableConcept.text.  This element should always be included in the narrative.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-flag-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-flag-code-vs</t>
   </si>
   <si>
     <t>.value</t>
@@ -1171,7 +1171,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="117.21484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.9765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.58984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="226">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>hn-basis-Flag</t>
+    <t>hn-basis-flag</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Basisprofil for Flag used in 'ny timeløsning' &lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/2052685825/Draft+-+Timenotifikasjon.+Ny+nasjonal+timel+sning&gt;</t>
+    <t>Basisprofil for Flag used in 'ny timeløsning.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -144,7 +144,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Observation[classCode=ISSUE, moodCode=EVN]</t>
@@ -191,10 +191,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Flag.implicitRules</t>
   </si>
   <si>
@@ -214,6 +221,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Flag.language</t>
   </si>
   <si>
@@ -291,9 +301,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Flag.extension</t>
   </si>
   <si>
@@ -314,6 +321,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -362,7 +379,34 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Flag.identifier.id</t>
+    <t>Flag.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error</t>
+  </si>
+  <si>
+    <t>Supports basic workflow.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates whether this flag is active and needs to be displayed to a user, or whether it is no longer needed or was entered in error.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/flag-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Flag.status.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -378,294 +422,105 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Flag.identifier.extension</t>
+    <t>Flag.status.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Flag.status.extension:statusPeriod</t>
+  </si>
+  <si>
+    <t>statusPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Flag.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Flag.identifier.type</t>
+    <t>hn-basis-flagStatusPeriod</t>
+  </si>
+  <si>
+    <t>Setting valid period for Flag status if needed</t>
+  </si>
+  <si>
+    <t>Flag.status.extension:statusPeriod.id</t>
+  </si>
+  <si>
+    <t>Flag.status.extension.id</t>
+  </si>
+  <si>
+    <t>Flag.status.extension:statusPeriod.extension</t>
+  </si>
+  <si>
+    <t>Flag.status.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Flag.status.extension:statusPeriod.url</t>
+  </si>
+  <si>
+    <t>Flag.status.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Flag.status.extension:statusPeriod.value[x]</t>
+  </si>
+  <si>
+    <t>Flag.status.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period for flag status</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Flag.status.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Flag.category</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Flag.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Flag.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Flag.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Flag.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Flag.status</t>
-  </si>
-  <si>
-    <t>active | inactive | entered-in-error</t>
-  </si>
-  <si>
-    <t>Supports basic workflow.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Indicates whether this flag is active and needs to be displayed to a user, or whether it is no longer needed or was entered in error.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/flag-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Flag.status.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Flag.status.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod</t>
-  </si>
-  <si>
-    <t>statusPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod}
-</t>
-  </si>
-  <si>
-    <t>hn-basis-flagStatusPeriod</t>
-  </si>
-  <si>
-    <t>Setting valid period for Flag status if needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod.id</t>
-  </si>
-  <si>
-    <t>Flag.status.extension.id</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod.extension</t>
-  </si>
-  <si>
-    <t>Flag.status.extension.extension</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod.url</t>
-  </si>
-  <si>
-    <t>Flag.status.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod.value[x]</t>
-  </si>
-  <si>
-    <t>Flag.status.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Period for flag status</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Flag.status.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>Flag.category</t>
-  </si>
-  <si>
     <t>Clinical, administrative, etc.</t>
   </si>
   <si>
@@ -719,7 +574,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-4:If code is used in a codable consept the system and description must be used {code &gt; '' implies (system &gt; '' and display &gt; '')}</t>
+inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
   </si>
   <si>
     <t>union(., ./translation)</t>
@@ -756,6 +611,9 @@
   </si>
   <si>
     <t>If non-coded, use CodeableConcept.text.  This element should always be included in the narrative.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-flag-code-vs</t>
@@ -792,6 +650,13 @@
     <t>The patient, location, group, organization, or practitioner etc. this is about record this flag is associated with.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT | LOCE | ASSIGNED]</t>
   </si>
   <si>
@@ -805,6 +670,17 @@
   </si>
   <si>
     <t>The period of time from the activation of the flag to inactivation of the flag. If the flag is active, the end of the period should be unspecified.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
   </si>
   <si>
     <t>FiveWs.context</t>
@@ -824,6 +700,9 @@
   </si>
   <si>
     <t>If both Flag.encounter and Flag.period are valued, then Flag.period.start shall not be before Encounter.period.start and Flag.period.end shall not be after Encounter.period.end.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Flag.author</t>
@@ -1139,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1165,10 +1044,10 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="117.21484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="59.58984375" customWidth="true" bestFit="true"/>
@@ -1182,7 +1061,7 @@
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="95.078125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="16.20703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1494,13 +1373,13 @@
         <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -1508,10 +1387,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1534,16 +1413,16 @@
         <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1593,7 +1472,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
@@ -1602,13 +1481,13 @@
         <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>38</v>
@@ -1616,10 +1495,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1642,16 +1521,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1677,13 +1556,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -1701,7 +1580,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -1710,13 +1589,13 @@
         <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>38</v>
@@ -1724,14 +1603,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1750,16 +1629,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1809,7 +1688,7 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
@@ -1818,13 +1697,13 @@
         <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -1832,21 +1711,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1858,16 +1737,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1917,7 +1796,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -1932,7 +1811,7 @@
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>38</v>
@@ -1940,14 +1819,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1966,16 +1845,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2013,19 +1892,19 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2034,13 +1913,13 @@
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>38</v>
@@ -2048,14 +1927,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2074,19 +1953,19 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2123,19 +2002,19 @@
         <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2144,13 +2023,13 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>38</v>
@@ -2158,10 +2037,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2169,7 +2048,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -2184,19 +2063,19 @@
         <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2245,7 +2124,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2254,24 +2133,24 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2279,7 +2158,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>45</v>
@@ -2288,21 +2167,23 @@
         <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -2327,13 +2208,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2351,44 +2232,44 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -2400,17 +2281,15 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -2447,34 +2326,34 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
@@ -2482,46 +2361,44 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2545,46 +2422,46 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -2595,9 +2472,11 @@
         <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>38</v>
       </c>
@@ -2615,23 +2494,19 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>38</v>
       </c>
@@ -2655,13 +2530,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -2679,22 +2554,22 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2702,10 +2577,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2725,23 +2600,19 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>38</v>
       </c>
@@ -2753,7 +2624,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>38</v>
@@ -2789,7 +2660,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -2801,10 +2672,10 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -2812,10 +2683,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2823,10 +2694,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -2835,20 +2706,18 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -2861,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>38</v>
@@ -2885,34 +2754,34 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
@@ -2920,10 +2789,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2931,7 +2800,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -2943,25 +2812,27 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>38</v>
@@ -3003,10 +2874,10 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
@@ -3015,10 +2886,10 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
@@ -3026,10 +2897,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3049,20 +2920,18 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3111,7 +2980,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3120,13 +2989,13 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3134,10 +3003,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3145,7 +3014,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3154,23 +3023,21 @@
         <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3192,16 +3059,16 @@
         <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -3219,10 +3086,10 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3231,21 +3098,21 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3256,7 +3123,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3265,18 +3132,20 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3301,13 +3170,13 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
@@ -3325,33 +3194,33 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3362,7 +3231,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3374,13 +3243,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3419,32 +3288,34 @@
         <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -3452,23 +3323,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3480,15 +3349,17 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -3525,19 +3396,19 @@
         <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -3546,13 +3417,13 @@
         <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -3560,10 +3431,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3574,7 +3445,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3583,19 +3454,23 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
       </c>
@@ -3643,22 +3518,22 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
@@ -3666,10 +3541,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3680,7 +3555,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3689,19 +3564,23 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3737,34 +3616,34 @@
         <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
@@ -3772,10 +3651,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3795,19 +3674,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3815,7 +3694,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>38</v>
@@ -3833,13 +3712,11 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -3857,7 +3734,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>45</v>
@@ -3866,24 +3743,24 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3906,13 +3783,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3963,7 +3840,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -3975,10 +3852,10 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -3986,21 +3863,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4012,15 +3889,17 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4057,34 +3936,34 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4092,10 +3971,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4118,18 +3997,20 @@
         <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
       </c>
@@ -4153,13 +4034,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -4177,7 +4058,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -4186,24 +4067,24 @@
         <v>37</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4223,19 +4104,23 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
       </c>
@@ -4283,7 +4168,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -4292,13 +4177,13 @@
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -4306,21 +4191,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4329,19 +4214,19 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4379,45 +4264,45 @@
         <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4428,7 +4313,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -4440,20 +4325,18 @@
         <v>46</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>38</v>
       </c>
@@ -4501,33 +4384,33 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4550,20 +4433,18 @@
         <v>46</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>38</v>
       </c>
@@ -4611,7 +4492,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -4620,24 +4501,24 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4645,7 +4526,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -4660,16 +4541,16 @@
         <v>46</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4695,11 +4576,13 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
@@ -4717,885 +4600,25 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF36" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="P37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T15:53:02+01:00</t>
+    <t>2023-11-19T21:48:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T15:31:30+01:00</t>
+    <t>2023-12-13T23:52:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T23:52:19+01:00</t>
+    <t>2023-12-15T20:08:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T20:08:30+01:00</t>
+    <t>2023-12-19T12:28:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T12:28:54+01:00</t>
+    <t>2023-12-21T10:30:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T10:30:52+01:00</t>
+    <t>2024-01-15T07:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:24:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:24:21+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T14:16:42+01:00</t>
+    <t>2024-06-01T10:49:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="265">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T10:49:22+02:00</t>
+    <t>2025-01-31T12:01:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Example Publisher (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -118,6 +124,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Barriers to Care
@@ -128,9 +248,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -855,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -955,21 +1072,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1009,6 +1126,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1031,10 +1156,11 @@
     <col min="2" max="2" width="29.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="92.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1042,3583 +1168,3699 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="117.21484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="59.58984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="95.078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>38</v>
+      <c r="H1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AD8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>213</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>225</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:01:35+01:00</t>
+    <t>2025-01-31T15:15:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:15:59+01:00</t>
+    <t>2025-01-31T16:07:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:07:19+01:00</t>
+    <t>2025-02-01T23:53:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:53:20+01:00</t>
+    <t>2025-02-15T12:00:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -523,7 +523,38 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>Flag.status.id</t>
+    <t>Flag.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Clinical, administrative, etc.</t>
+  </si>
+  <si>
+    <t>Allows a flag to be divided into different categories like clinical, administrative etc. Intended to be used as a means of filtering which flags are displayed to particular user or in a given context.</t>
+  </si>
+  <si>
+    <t>The value set will often need to be adjusted based on local business rules and usage context.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A general category for flags for filtering/display purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/flag-category</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Flag.category.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -539,7 +570,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Flag.status.extension</t>
+    <t>Flag.category.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -548,239 +579,123 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Flag.status.extension:statusPeriod</t>
-  </si>
-  <si>
-    <t>statusPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod}
+    <t>Flag.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>hn-basis-flagStatusPeriod</t>
-  </si>
-  <si>
-    <t>Setting valid period for Flag status if needed</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod.id</t>
-  </si>
-  <si>
-    <t>Flag.status.extension.id</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod.extension</t>
-  </si>
-  <si>
-    <t>Flag.status.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod.url</t>
-  </si>
-  <si>
-    <t>Flag.status.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Flag.status.extension:statusPeriod.value[x]</t>
-  </si>
-  <si>
-    <t>Flag.status.extension.value[x]</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Flag.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Flag.code</t>
+  </si>
+  <si>
+    <t>Coded or textual message to display to user</t>
+  </si>
+  <si>
+    <t>The coded value or textual component of the flag to display to the user.</t>
+  </si>
+  <si>
+    <t>If non-coded, use CodeableConcept.text.  This element should always be included in the narrative.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-flag-code-vs</t>
+  </si>
+  <si>
+    <t>.value</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Flag.code.id</t>
+  </si>
+  <si>
+    <t>Flag.code.extension</t>
+  </si>
+  <si>
+    <t>Flag.code.coding</t>
+  </si>
+  <si>
+    <t>Flag.code.text</t>
+  </si>
+  <si>
+    <t>Flag.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Location|Group|Organization|Practitioner|PlanDefinition|Medication|Procedure)
+</t>
+  </si>
+  <si>
+    <t>Who/What is flag about?</t>
+  </si>
+  <si>
+    <t>The patient, location, group, organization, or practitioner etc. this is about record this flag is associated with.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT | LOCE | ASSIGNED]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Flag.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Period for flag status</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Flag.status.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>Flag.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Clinical, administrative, etc.</t>
-  </si>
-  <si>
-    <t>Allows a flag to be divided into different categories like clinical, administrative etc. Intended to be used as a means of filtering which flags are displayed to particular user or in a given context.</t>
-  </si>
-  <si>
-    <t>The value set will often need to be adjusted based on local business rules and usage context.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A general category for flags for filtering/display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/flag-category</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Flag.category.id</t>
-  </si>
-  <si>
-    <t>Flag.category.extension</t>
-  </si>
-  <si>
-    <t>Flag.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Flag.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Flag.code</t>
-  </si>
-  <si>
-    <t>Coded or textual message to display to user</t>
-  </si>
-  <si>
-    <t>The coded value or textual component of the flag to display to the user.</t>
-  </si>
-  <si>
-    <t>If non-coded, use CodeableConcept.text.  This element should always be included in the narrative.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-flag-code-vs</t>
-  </si>
-  <si>
-    <t>.value</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Flag.code.id</t>
-  </si>
-  <si>
-    <t>Flag.code.extension</t>
-  </si>
-  <si>
-    <t>Flag.code.coding</t>
-  </si>
-  <si>
-    <t>Flag.code.text</t>
-  </si>
-  <si>
-    <t>Flag.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Location|Group|Organization|Practitioner|PlanDefinition|Medication|Procedure)
-</t>
-  </si>
-  <si>
-    <t>Who/What is flag about?</t>
-  </si>
-  <si>
-    <t>The patient, location, group, organization, or practitioner etc. this is about record this flag is associated with.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT | LOCE | ASSIGNED]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Flag.period</t>
   </si>
   <si>
     <t>Time period when flag is active</t>
@@ -1143,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1152,9 +1067,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="22.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2511,7 +2426,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2520,7 +2435,7 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>164</v>
@@ -2531,7 +2446,9 @@
       <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2556,13 +2473,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2580,44 +2497,44 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2629,17 +2546,15 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -2676,34 +2591,34 @@
         <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -2711,23 +2626,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2739,15 +2652,17 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -2784,19 +2699,19 @@
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2811,7 +2726,7 @@
         <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -2819,10 +2734,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2833,7 +2748,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2842,19 +2757,23 @@
         <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -2902,22 +2821,22 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -2925,10 +2844,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2939,7 +2858,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2948,19 +2867,23 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -2996,34 +2919,34 @@
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -3031,10 +2954,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3054,19 +2977,19 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3074,7 +2997,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>20</v>
@@ -3092,13 +3015,11 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3116,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>84</v>
@@ -3125,24 +3046,24 @@
         <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>20</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3165,13 +3086,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3222,7 +3143,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3231,13 +3152,13 @@
         <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
@@ -3245,21 +3166,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3271,15 +3192,17 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3301,7 +3224,7 @@
         <v>20</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>20</v>
@@ -3316,34 +3239,34 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3351,10 +3274,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3377,18 +3300,20 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -3412,13 +3337,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -3436,7 +3361,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3448,13 +3373,13 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -3482,19 +3407,23 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
       </c>
@@ -3542,7 +3471,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3551,13 +3480,13 @@
         <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -3572,14 +3501,14 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3588,19 +3517,19 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3638,45 +3567,45 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3687,7 +3616,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3699,20 +3628,18 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -3760,33 +3687,33 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3809,20 +3736,18 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -3870,7 +3795,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3882,21 +3807,21 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>20</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3904,7 +3829,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -3919,16 +3844,16 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3954,32 +3879,34 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>84</v>
@@ -3988,879 +3915,13 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-hn-basis-Flag.xlsx
+++ b/StructureDefinition-hn-basis-Flag.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="239">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-15T12:00:41+01:00</t>
+    <t>2025-06-05T14:31:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,7 +261,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Observation[classCode=ISSUE, moodCode=EVN]</t>
@@ -308,17 +308,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Flag.implicitRules</t>
   </si>
   <si>
@@ -338,9 +331,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Flag.language</t>
   </si>
   <si>
@@ -418,6 +408,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Flag.extension</t>
   </si>
   <si>
@@ -438,89 +431,123 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Flag.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Flag.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this flag by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the flag as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Flag.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error</t>
+  </si>
+  <si>
+    <t>Supports basic workflow.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates whether this flag is active and needs to be displayed to a user, or whether it is no longer needed or was entered in error.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/flag-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Flag.status.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Flag.status.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Flag.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Flag.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this flag by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the flag as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Flag.status</t>
-  </si>
-  <si>
-    <t>active | inactive | entered-in-error</t>
-  </si>
-  <si>
-    <t>Supports basic workflow.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indicates whether this flag is active and needs to be displayed to a user, or whether it is no longer needed or was entered in error.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/flag-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Flag.status.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Flag.category</t>
@@ -557,17 +584,13 @@
     <t>Flag.category.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
-    <t>Element.id</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>Flag.category.extension</t>
@@ -576,7 +599,7 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Element.extension</t>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Flag.category.coding</t>
@@ -678,13 +701,6 @@
     <t>The patient, location, group, organization, or practitioner etc. this is about record this flag is associated with.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT | LOCE | ASSIGNED]</t>
   </si>
   <si>
@@ -704,17 +720,6 @@
     <t>The period of time from the activation of the flag to inactivation of the flag. If the flag is active, the end of the period should be unspecified.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
-  </si>
-  <si>
     <t>FiveWs.context</t>
   </si>
   <si>
@@ -732,9 +737,6 @@
   </si>
   <si>
     <t>If both Flag.encounter and Flag.period are valued, then Flag.period.start shall not be before Encounter.period.start and Flag.period.end shall not be after Encounter.period.end.</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Flag.author</t>
@@ -1058,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1102,7 +1104,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="95.078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="63.46484375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1530,13 +1532,13 @@
         <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>20</v>
@@ -1544,10 +1546,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1570,16 +1572,16 @@
         <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1629,7 +1631,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1638,13 +1640,13 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>20</v>
@@ -1652,10 +1654,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1678,16 +1680,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1713,31 +1715,31 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1746,13 +1748,13 @@
         <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>20</v>
@@ -1760,14 +1762,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1786,16 +1788,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1845,7 +1847,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1854,13 +1856,13 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -1868,14 +1870,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1894,16 +1896,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1953,7 +1955,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -1968,7 +1970,7 @@
         <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -1976,14 +1978,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2002,16 +2004,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2049,19 +2051,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2070,13 +2072,13 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>20</v>
@@ -2084,14 +2086,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2110,19 +2112,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2159,19 +2161,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2180,13 +2182,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2194,10 +2196,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2220,19 +2222,19 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2281,7 +2283,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2290,24 +2292,24 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2330,16 +2332,16 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2365,13 +2367,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -2389,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>84</v>
@@ -2398,24 +2400,24 @@
         <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2426,7 +2428,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2435,20 +2437,18 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2473,13 +2473,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2497,33 +2497,33 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2534,7 +2534,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2546,13 +2546,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2591,34 +2591,32 @@
         <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -2626,21 +2624,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2652,17 +2650,15 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -2699,34 +2695,34 @@
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -2734,10 +2730,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2760,20 +2756,18 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -2797,13 +2791,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -2821,7 +2815,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2830,24 +2824,24 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>20</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2867,23 +2861,19 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -2931,7 +2921,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2940,13 +2930,13 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -2954,21 +2944,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2977,19 +2967,19 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3015,55 +3005,57 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3074,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3083,19 +3075,23 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3143,22 +3139,22 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
@@ -3166,21 +3162,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3189,21 +3185,23 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
@@ -3239,34 +3237,34 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3274,10 +3272,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3285,10 +3283,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3300,20 +3298,18 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -3337,13 +3333,11 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -3361,33 +3355,33 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3407,23 +3401,19 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
       </c>
@@ -3471,7 +3461,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3480,13 +3470,13 @@
         <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -3494,21 +3484,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3517,19 +3507,19 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3567,45 +3557,45 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3616,7 +3606,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3628,18 +3618,20 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -3687,33 +3679,33 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3736,18 +3728,20 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -3795,7 +3789,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3804,24 +3798,24 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3829,7 +3823,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -3844,17 +3838,15 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -3903,25 +3895,345 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>236</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
